--- a/Data/Indicator Metadata.xlsx
+++ b/Data/Indicator Metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>beninvert_cpue</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Arctic Oscillation</t>
-  </si>
-  <si>
-    <t>1,000t/km²</t>
   </si>
   <si>
     <t>°C</t>
@@ -122,6 +119,12 @@
   </si>
   <si>
     <t>millimeters</t>
+  </si>
+  <si>
+    <t>km²</t>
+  </si>
+  <si>
+    <t>kg/km²</t>
   </si>
 </sst>
 </file>
@@ -458,16 +461,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -486,10 +489,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -497,81 +500,84 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Indicator Metadata.xlsx
+++ b/Data/Indicator Metadata.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>beninvert_cpue</t>
-  </si>
-  <si>
-    <t>cp_extent</t>
-  </si>
-  <si>
-    <t>mat_male_d95</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Indicator</t>
   </si>
   <si>
-    <t>Indicator Name</t>
-  </si>
-  <si>
     <t>Indicator Unit</t>
   </si>
   <si>
@@ -56,8 +44,146 @@
     <t>°C</t>
   </si>
   <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>nmi²</t>
+  </si>
+  <si>
+    <t>Mature Male Snow Crab Area Occupied</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immature snow crab disease prevalance </t>
+  </si>
+  <si>
+    <t>Mature Male Snow Crab Center of Abundance</t>
+  </si>
+  <si>
+    <t>°Latitude</t>
+  </si>
+  <si>
+    <t>Immature snow crab temperature occupied</t>
+  </si>
+  <si>
+    <t>millimeters</t>
+  </si>
+  <si>
+    <t>km²</t>
+  </si>
+  <si>
+    <t>kg/km²</t>
+  </si>
+  <si>
+    <t>AKFIN Indicator Name</t>
+  </si>
+  <si>
+    <t>Rationale for assigning lag</t>
+  </si>
+  <si>
+    <t>Survey lag (in years)</t>
+  </si>
+  <si>
+    <t>Relationship with Stock</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Winter_Spring_Arctic_Oscillation_Index_Model</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Model Response</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Juvenile_Disease_Prevalence</t>
+  </si>
+  <si>
+    <t>Winter Sea Ice Extent</t>
+  </si>
+  <si>
+    <t>Winter_Sea_Ice_Advance_BS_Satellite</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Juvenile_Temperature_Occupancy</t>
+  </si>
+  <si>
+    <t>Annual_Snow_Crab_Male_Size_Terminal_Molt_Model</t>
+  </si>
+  <si>
+    <t>Male Snow Crab Size at 50% Probability of Terminal Molt</t>
+  </si>
+  <si>
+    <t>Include in BAS?</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Male_Area_Occupied_SEBS_Survey</t>
+  </si>
+  <si>
+    <t>Not a driver of recruitment; removed from BAS (could include juvenile area occupied/Lag of 1?)</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Male_Center_Distribution_SEBS_Survey</t>
+  </si>
+  <si>
+    <t>Not a driver of recruitment; removed from BAS</t>
+  </si>
+  <si>
+    <t>Pacific Cod Consumption</t>
+  </si>
+  <si>
+    <t>mt/day</t>
+  </si>
+  <si>
+    <t>Not a driver of recruitment?</t>
+  </si>
+  <si>
+    <t>Snow Crab Condition</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Juvenile_Condition_SEBS_Survey</t>
+  </si>
+  <si>
+    <t>% dry weight</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Female_Reproductive_Potential_SEBS_Survey</t>
+  </si>
+  <si>
+    <t>Female Reproductive Potential</t>
+  </si>
+  <si>
+    <t>Proportion full clutches</t>
+  </si>
+  <si>
+    <t>Summer_Snow_Crab_Operational_Sex_Ratio_SEBS_Survey</t>
+  </si>
+  <si>
+    <t>Operational Sex Ratio</t>
+  </si>
+  <si>
+    <t>no directional relationship</t>
+  </si>
+  <si>
     <r>
-      <t>Spatial extent, in nmi</t>
+      <t>Summer_Benthic_Invertebrate_Density_SEBS_Survey</t>
     </r>
     <r>
       <rPr>
@@ -65,73 +191,113 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Summer_Cold_Pool_SEBS_Survey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Summer_Snow_Crab_Consumption_Pacific_cod_Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nmi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>²</t>
     </r>
   </si>
   <si>
-    <t>Deviation</t>
-  </si>
-  <si>
-    <t>nmi²</t>
-  </si>
-  <si>
-    <t>Mean_AO</t>
-  </si>
-  <si>
-    <t>bcs_imm</t>
-  </si>
-  <si>
-    <t>mat_male_COD</t>
-  </si>
-  <si>
-    <t>temp_occ_imm</t>
-  </si>
-  <si>
-    <t>JanFeb_ice</t>
-  </si>
-  <si>
-    <t>male_SAM</t>
-  </si>
-  <si>
-    <t>Mature Male Snow Crab Area Occupied</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immature snow crab disease prevalance </t>
-  </si>
-  <si>
-    <t>Mature Male Snow Crab Center of Abundance</t>
-  </si>
-  <si>
-    <t>°Latitude</t>
-  </si>
-  <si>
-    <t>Immature snow crab temperature occupied</t>
-  </si>
-  <si>
-    <t>Winter Sea Ice</t>
-  </si>
-  <si>
-    <t>Male Snow Crab Size at 50% Maturity</t>
-  </si>
-  <si>
-    <t>millimeters</t>
-  </si>
-  <si>
-    <t>km²</t>
-  </si>
-  <si>
-    <t>kg/km²</t>
+    <t xml:space="preserve">Males collected for this indicator are larger than 50-65mm, assuming similar mechanism between cohorts for reduced condition within a year. Poor condition suggests poor survival to recruitment the following year </t>
+  </si>
+  <si>
+    <t>AMJ_Chlorophylla_Biomass_SEBS_Satellite</t>
+  </si>
+  <si>
+    <t>Chla Concentration</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>model_recruit</t>
+  </si>
+  <si>
+    <t>Recruitment output from 2022 approved model. Note that the final few years of recruitment estimates are fairly unreliable. Size crab recruiting to the model are 25-40mm carapace width, and therefore likely 3-4 years post-settlement</t>
+  </si>
+  <si>
+    <t>imm_abund</t>
+  </si>
+  <si>
+    <t>EBS BT survey abundance (in millions) of male snow crab 50-65mm. 50mm minimum selected using BSFRF selectivity curves. See Sainte-Marie 1995 for size at age estimates to assign lags (males 50-65mm estimated 5.7-6.7 years post-settlement)</t>
+  </si>
+  <si>
+    <t>Model lag (in years)</t>
+  </si>
+  <si>
+    <t>Diatoms are a key prey item for larval stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most cod predation happens at 10-20mm (cod stomach data) </t>
+  </si>
+  <si>
+    <t>Recruitment success has been linked to sea ice extent, Loss of sea ice likely decreases both food quality and quantity supplied to the benthos for early juveniles- Copeman et. al research</t>
+  </si>
+  <si>
+    <t>Juvenile snow crab habitat; Proposed direct effect on juvenile survival the following year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalance is highest in smallest size classes caught on survey- affecting survival to recruitment  </t>
+  </si>
+  <si>
+    <t>Hypothesized to affect larval stages (Szuwalski et al 2021) but mechasism unclear</t>
+  </si>
+  <si>
+    <t>Hypothesized to affect early benthic stages (Dionne 2003: Instars 1-3 most stenothermic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Represents prey items across ontogeny, though prey items most representative for large, hard clawed crab. Missing polychetes, which are preferential juvenile crab prey. Limited prey may influence survival to recruitment the following year </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +318,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,14 +344,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,126 +647,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
